--- a/Indexing_API/input_keys.xlsx
+++ b/Indexing_API/input_keys.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dietb\PycharmProjects\Automatization\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dietb\PycharmProjects\Automatization\Indexing_API\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6392057E-F950-494B-B27E-4850483C16D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DECAE81-4555-492B-A4EA-111F3C626033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2475" yWindow="4305" windowWidth="9390" windowHeight="11055" xr2:uid="{311AB580-53BC-4D71-92BF-E91A84AD2EDD}"/>
+    <workbookView xWindow="1500" yWindow="390" windowWidth="13410" windowHeight="9345" xr2:uid="{311AB580-53BC-4D71-92BF-E91A84AD2EDD}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,9 +34,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>small-talk-ntfx-ebf3ae30d562</t>
+    <t>small-talk-ntfx-ebf3ae30d562-name1</t>
+  </si>
+  <si>
+    <t>small-talk-ntfx-ebf3ae30d562-name2</t>
+  </si>
+  <si>
+    <t>small-talk-ntfx-ebf3ae30d562-name3</t>
   </si>
 </sst>
 </file>
@@ -389,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F72540B-D432-4ED5-97CF-D8700B0F6FB7}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,6 +408,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
